--- a/docs/Santander CNAB 400 normalizado.xlsx
+++ b/docs/Santander CNAB 400 normalizado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remessa" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="416">
   <si>
     <t xml:space="preserve">Nome do arquivo:</t>
   </si>
@@ -170,6 +170,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Conta movimento velha (8 posições): preencher com o conjunto de números informados pelo Banco (SCCM). Conta movimento nova (10 posições): preencher com as 8 primeiras posições da </t>
     </r>
@@ -180,6 +181,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">conta cobrança</t>
     </r>
@@ -189,6 +191,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -935,6 +938,9 @@
     <t xml:space="preserve">Código de ocorrência</t>
   </si>
   <si>
+    <t xml:space="preserve">occurrenceCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">01: título não existe, 02: entrada título confirmada, 03: entrada título rejeitada, 06: liquidação, 07: liquidação por conta, 08: liquidação por saldo, 09: baixa automática, 10: título baix. conf. instrução, 11: em ser, 12: abatimento concedido, 13: abatimento cancelado, 14: prorrogação de vencimento, 15: confirmação de protesto, 16: título já baixado/liquidado, 17: liquidado em cartório, 21: título enviado a cartório, 22: título retirado de cartório, 24: custas de cartório, 25: protestar título, 26: sustar protesto</t>
   </si>
   <si>
@@ -944,18 +950,27 @@
     <t xml:space="preserve">Data da ocorrência</t>
   </si>
   <si>
+    <t xml:space="preserve">occurrenceDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">117 a 126</t>
   </si>
   <si>
     <t xml:space="preserve">127 a 134</t>
   </si>
   <si>
+    <t xml:space="preserve">ourNumber2</t>
+  </si>
+  <si>
     <t xml:space="preserve">135 a 136</t>
   </si>
   <si>
     <t xml:space="preserve">Código Original da Remessa</t>
   </si>
   <si>
+    <t xml:space="preserve">originalRemittanceCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esse campo terá conteúdo diferente de zero caso ocorra erro no processamento da remessa</t>
   </si>
   <si>
@@ -968,18 +983,27 @@
     <t xml:space="preserve">Código do Erro (1ª ocorrência)</t>
   </si>
   <si>
+    <t xml:space="preserve">errorCode1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Será preenchido com brancos quando não ocorrer erro</t>
   </si>
   <si>
     <t xml:space="preserve">Código do Erro (2ª ocorrência)</t>
   </si>
   <si>
+    <t xml:space="preserve">errorCode2</t>
+  </si>
+  <si>
     <t xml:space="preserve">143 a 145</t>
   </si>
   <si>
     <t xml:space="preserve">Código do Erro (3º ocorrência)</t>
   </si>
   <si>
+    <t xml:space="preserve">errorCode3</t>
+  </si>
+  <si>
     <t xml:space="preserve">146 a 146</t>
   </si>
   <si>
@@ -1013,18 +1037,27 @@
     <t xml:space="preserve">Valor da tarifa cobrada</t>
   </si>
   <si>
+    <t xml:space="preserve">billingFare</t>
+  </si>
+  <si>
     <t xml:space="preserve">189 a 201</t>
   </si>
   <si>
     <t xml:space="preserve">Valor de outras despesas</t>
   </si>
   <si>
+    <t xml:space="preserve">otherDebits</t>
+  </si>
+  <si>
     <t xml:space="preserve">202 a 214</t>
   </si>
   <si>
     <t xml:space="preserve">Valor dos juros de atraso</t>
   </si>
   <si>
+    <t xml:space="preserve">lateInterest</t>
+  </si>
+  <si>
     <t xml:space="preserve">215 a 227</t>
   </si>
   <si>
@@ -1043,24 +1076,36 @@
     <t xml:space="preserve">Valor do desconto concedido</t>
   </si>
   <si>
+    <t xml:space="preserve">discount</t>
+  </si>
+  <si>
     <t xml:space="preserve">254 a 266</t>
   </si>
   <si>
     <t xml:space="preserve">Valor total recebido</t>
   </si>
   <si>
+    <t xml:space="preserve">mainValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">267 a 279</t>
   </si>
   <si>
     <t xml:space="preserve">Valor dos juros de mora</t>
   </si>
   <si>
+    <t xml:space="preserve">interests</t>
+  </si>
+  <si>
     <t xml:space="preserve">280 a 292</t>
   </si>
   <si>
     <t xml:space="preserve">Valor de outros créditos</t>
   </si>
   <si>
+    <t xml:space="preserve">otherCredits</t>
+  </si>
+  <si>
     <t xml:space="preserve">293 a 293</t>
   </si>
   <si>
@@ -1079,6 +1124,9 @@
     <t xml:space="preserve">Data do crédito</t>
   </si>
   <si>
+    <t xml:space="preserve">creditDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">302 a 337</t>
   </si>
   <si>
@@ -1091,24 +1139,36 @@
     <t xml:space="preserve">339 a 340</t>
   </si>
   <si>
+    <t xml:space="preserve">currencyUnit</t>
+  </si>
+  <si>
     <t xml:space="preserve">341 a 353</t>
   </si>
   <si>
     <t xml:space="preserve">Valor do título em outra unidade de valor</t>
   </si>
   <si>
+    <t xml:space="preserve">valueOtherUnit</t>
+  </si>
+  <si>
     <t xml:space="preserve">354 a 366</t>
   </si>
   <si>
     <t xml:space="preserve">Valor do IOC em outra unidade de valor</t>
   </si>
   <si>
+    <t xml:space="preserve">iocCurrency</t>
+  </si>
+  <si>
     <t xml:space="preserve">367 a 379</t>
   </si>
   <si>
     <t xml:space="preserve">Valor do débito ou crédito</t>
   </si>
   <si>
+    <t xml:space="preserve">creditDebitFlag</t>
+  </si>
+  <si>
     <t xml:space="preserve">380 a 380</t>
   </si>
   <si>
@@ -1116,6 +1176,9 @@
   </si>
   <si>
     <t xml:space="preserve">381 a 383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Codigo da remessa</t>
@@ -1251,6 +1314,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1271,23 +1335,27 @@
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1295,6 +1363,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1501,18 +1570,18 @@
   </sheetPr>
   <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.015306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="17.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4263,18 +4332,18 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D71" activeCellId="0" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="52.015306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="57.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="17.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5262,7 +5331,9 @@
       <c r="C30" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E30" s="6" t="s">
         <v>287</v>
       </c>
@@ -5382,7 +5453,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>150</v>
       </c>
@@ -5392,7 +5463,9 @@
       <c r="C34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="E34" s="6" t="s">
         <v>293</v>
       </c>
@@ -5415,7 +5488,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="142.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="116.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>154</v>
       </c>
@@ -5425,9 +5498,11 @@
       <c r="C35" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="E35" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -5450,15 +5525,17 @@
     </row>
     <row r="36" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -5481,7 +5558,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>159</v>
@@ -5514,7 +5591,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>40</v>
@@ -5523,7 +5600,7 @@
         <v>118</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -5547,18 +5624,20 @@
     </row>
     <row r="39" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>305</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -5580,18 +5659,20 @@
     </row>
     <row r="40" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>309</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -5616,15 +5697,17 @@
         <v>169</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -5646,18 +5729,20 @@
     </row>
     <row r="42" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>315</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -5679,7 +5764,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>125</v>
@@ -5710,7 +5795,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>63</v>
@@ -5743,13 +5828,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>168</v>
@@ -5776,13 +5861,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>171</v>
@@ -5809,13 +5894,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>175</v>
@@ -5842,7 +5927,7 @@
     </row>
     <row r="48" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>25</v>
@@ -5877,15 +5962,17 @@
     </row>
     <row r="49" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>327</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -5908,15 +5995,17 @@
     </row>
     <row r="50" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -5939,15 +6028,17 @@
     </row>
     <row r="51" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -5970,15 +6061,17 @@
     </row>
     <row r="52" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>336</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -6001,15 +6094,17 @@
     </row>
     <row r="53" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -6032,15 +6127,17 @@
     </row>
     <row r="54" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -6063,15 +6160,17 @@
     </row>
     <row r="55" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -6094,15 +6193,17 @@
     </row>
     <row r="56" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -6125,15 +6226,17 @@
     </row>
     <row r="57" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -6156,7 +6259,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>125</v>
@@ -6187,15 +6290,17 @@
     </row>
     <row r="59" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>353</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="E59" s="6" t="s">
         <v>184</v>
       </c>
@@ -6220,7 +6325,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>125</v>
@@ -6251,15 +6356,17 @@
     </row>
     <row r="61" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>356</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>357</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -6282,15 +6389,17 @@
     </row>
     <row r="62" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -6313,7 +6422,7 @@
     </row>
     <row r="63" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>125</v>
@@ -6321,7 +6430,9 @@
       <c r="C63" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="E63" s="6" t="s">
         <v>245</v>
       </c>
@@ -6346,7 +6457,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>25</v>
@@ -6354,7 +6465,9 @@
       <c r="C64" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="E64" s="6" t="s">
         <v>138</v>
       </c>
@@ -6379,15 +6492,17 @@
     </row>
     <row r="65" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>364</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -6410,15 +6525,17 @@
     </row>
     <row r="66" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -6441,15 +6558,17 @@
     </row>
     <row r="67" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>370</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -6472,7 +6591,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>125</v>
@@ -6480,7 +6599,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -6503,7 +6622,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>54</v>
@@ -6542,7 +6661,9 @@
       <c r="C70" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="E70" s="6" t="s">
         <v>249</v>
       </c>
@@ -6575,7 +6696,9 @@
       <c r="C71" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -6637,7 +6760,9 @@
       <c r="C73" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -6829,7 +6954,7 @@
         <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>267</v>
@@ -6858,7 +6983,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>25</v>
@@ -6870,7 +6995,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -6893,7 +7018,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>54</v>
@@ -6928,7 +7053,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>159</v>
@@ -6959,16 +7084,16 @@
     </row>
     <row r="83" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -6992,16 +7117,16 @@
     </row>
     <row r="84" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -7025,16 +7150,16 @@
     </row>
     <row r="85" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -7058,7 +7183,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>159</v>
@@ -7089,10 +7214,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>69</v>
@@ -7120,7 +7245,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>159</v>
@@ -7151,16 +7276,16 @@
     </row>
     <row r="89" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -7184,16 +7309,16 @@
     </row>
     <row r="90" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -7217,16 +7342,16 @@
     </row>
     <row r="91" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -7250,7 +7375,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>159</v>
@@ -7281,16 +7406,16 @@
     </row>
     <row r="93" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -7314,16 +7439,16 @@
     </row>
     <row r="94" customFormat="false" ht="27.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -7347,16 +7472,16 @@
     </row>
     <row r="95" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -7380,10 +7505,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>145</v>
